--- a/burn_down_charts.xlsx
+++ b/burn_down_charts.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a9d8d9fb12468240/IFB299/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n8865426\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="15461676E3EB64DD53011F0CF07EBCE53F331883" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Burn down chart" sheetId="2" r:id="rId1"/>
@@ -52,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -144,7 +143,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -208,6 +207,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -501,10 +501,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burn down chart'!$C$13:$C$25</c:f>
+              <c:f>'Burn down chart'!$C$13:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -542,7 +542,31 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.5</c:v>
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -605,6 +629,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -730,6 +755,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -804,6 +830,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -921,6 +948,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1039,7 +1067,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>168</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1118,18 +1146,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burn down chart'!$C$3:$C$5</c:f>
+              <c:f>'Burn down chart'!$C$3:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>168</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>115</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79</c:v>
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1187,6 +1221,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1312,6 +1347,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1386,6 +1422,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2913,11 +2950,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2950,10 +2987,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>168</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1">
-        <v>168</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -2962,7 +2999,7 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="1">
-        <v>115</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2971,7 +3008,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="1">
-        <v>79</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2980,7 +3017,7 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3128,7 +3165,7 @@
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="1">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -3136,42 +3173,63 @@
         <v>7</v>
       </c>
       <c r="B26" s="3"/>
+      <c r="C26" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>6</v>
       </c>
       <c r="B27" s="3"/>
+      <c r="C27" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>5</v>
       </c>
       <c r="B28" s="3"/>
+      <c r="C28" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>4</v>
       </c>
       <c r="B29" s="3"/>
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>3</v>
       </c>
       <c r="B30" s="3"/>
+      <c r="C30" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>2</v>
       </c>
       <c r="B31" s="3"/>
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>1</v>
       </c>
       <c r="B32" s="3"/>
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -3179,6 +3237,9 @@
         <v>0</v>
       </c>
       <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
         <v>0</v>
       </c>
       <c r="D33" s="2"/>
